--- a/resultData/KIKI.xlsx
+++ b/resultData/KIKI.xlsx
@@ -1,40 +1,422 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+  <si>
+    <t>KIKI</t>
+  </si>
+  <si>
+    <t>array-9-1</t>
+  </si>
+  <si>
+    <t>array-9-2</t>
+  </si>
+  <si>
+    <t>array-9-3</t>
+  </si>
+  <si>
+    <t>array-9-5</t>
+  </si>
+  <si>
+    <t>array-9-9</t>
+  </si>
+  <si>
+    <t>array-16-1</t>
+  </si>
+  <si>
+    <t>array-16-2</t>
+  </si>
+  <si>
+    <t>array-16-3</t>
+  </si>
+  <si>
+    <t>array-16-4</t>
+  </si>
+  <si>
+    <t>array-16-6</t>
+  </si>
+  <si>
+    <t>array-16-8</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -42,18 +424,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -373,1233 +1049,1240 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>KIKI</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1515134387474</v>
       </c>
-      <c r="C2" t="str">
-        <v>array-9-1</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="b">
         <v>1</v>
       </c>
       <c r="B3">
         <v>3168</v>
       </c>
-      <c r="C3" t="str">
-        <v>array-9-1</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="b">
         <v>1</v>
       </c>
       <c r="B4">
         <v>3288</v>
       </c>
-      <c r="C4" t="str">
-        <v>array-9-1</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="b">
         <v>1</v>
       </c>
       <c r="B5">
         <v>2559</v>
       </c>
-      <c r="C5" t="str">
-        <v>array-9-1</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="b">
         <v>1</v>
       </c>
       <c r="B6">
         <v>1936</v>
       </c>
-      <c r="C6" t="str">
-        <v>array-9-1</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="b">
         <v>1</v>
       </c>
       <c r="B7">
         <v>2064</v>
       </c>
-      <c r="C7" t="str">
-        <v>array-9-1</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="b">
         <v>1</v>
       </c>
       <c r="B8">
         <v>1504</v>
       </c>
-      <c r="C8" t="str">
-        <v>array-9-1</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="b">
         <v>1</v>
       </c>
       <c r="B9">
         <v>1411</v>
       </c>
-      <c r="C9" t="str">
-        <v>array-9-1</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="b">
         <v>1</v>
       </c>
       <c r="B10">
         <v>927</v>
       </c>
-      <c r="C10" t="str">
-        <v>array-9-1</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="b">
         <v>1</v>
       </c>
       <c r="B11">
         <v>1298</v>
       </c>
-      <c r="C11" t="str">
-        <v>array-9-1</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="b">
         <v>1</v>
       </c>
       <c r="B12">
         <v>3071</v>
       </c>
-      <c r="C12" t="str">
-        <v>array-9-2</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="b">
         <v>1</v>
       </c>
       <c r="B13">
         <v>2737</v>
       </c>
-      <c r="C13" t="str">
-        <v>array-9-2</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="b">
         <v>1</v>
       </c>
       <c r="B14">
         <v>2549</v>
       </c>
-      <c r="C14" t="str">
-        <v>array-9-2</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="b">
         <v>1</v>
       </c>
       <c r="B15">
         <v>1616</v>
       </c>
-      <c r="C15" t="str">
-        <v>array-9-2</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="b">
         <v>1</v>
       </c>
       <c r="B16">
         <v>1480</v>
       </c>
-      <c r="C16" t="str">
-        <v>array-9-2</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="b">
         <v>1</v>
       </c>
       <c r="B17">
         <v>1248</v>
       </c>
-      <c r="C17" t="str">
-        <v>array-9-2</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="b">
         <v>1</v>
       </c>
       <c r="B18">
         <v>2139</v>
       </c>
-      <c r="C18" t="str">
-        <v>array-9-2</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="b">
         <v>1</v>
       </c>
       <c r="B19">
         <v>1736</v>
       </c>
-      <c r="C19" t="str">
-        <v>array-9-2</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="b">
         <v>1</v>
       </c>
       <c r="B20">
         <v>976</v>
       </c>
-      <c r="C20" t="str">
-        <v>array-9-2</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="b">
         <v>1</v>
       </c>
       <c r="B21">
         <v>1753</v>
       </c>
-      <c r="C21" t="str">
-        <v>array-9-2</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="b">
         <v>1</v>
       </c>
       <c r="B22">
         <v>2808</v>
       </c>
-      <c r="C22" t="str">
-        <v>array-9-3</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="b">
         <v>1</v>
       </c>
       <c r="B23">
         <v>1756</v>
       </c>
-      <c r="C23" t="str">
-        <v>array-9-3</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="b">
         <v>1</v>
       </c>
       <c r="B24">
         <v>3201</v>
       </c>
-      <c r="C24" t="str">
-        <v>array-9-3</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="b">
         <v>1</v>
       </c>
       <c r="B25">
         <v>974</v>
       </c>
-      <c r="C25" t="str">
-        <v>array-9-3</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="b">
         <v>1</v>
       </c>
       <c r="B26">
         <v>1473</v>
       </c>
-      <c r="C26" t="str">
-        <v>array-9-3</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="b">
         <v>1</v>
       </c>
       <c r="B27">
         <v>2160</v>
       </c>
-      <c r="C27" t="str">
-        <v>array-9-3</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="b">
         <v>1</v>
       </c>
       <c r="B28">
         <v>1613</v>
       </c>
-      <c r="C28" t="str">
-        <v>array-9-3</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="b">
         <v>1</v>
       </c>
       <c r="B29">
         <v>3135</v>
       </c>
-      <c r="C29" t="str">
-        <v>array-9-3</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="b">
         <v>1</v>
       </c>
       <c r="B30">
         <v>2799</v>
       </c>
-      <c r="C30" t="str">
-        <v>array-9-3</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="b">
         <v>1</v>
       </c>
       <c r="B31">
         <v>2232</v>
       </c>
-      <c r="C31" t="str">
-        <v>array-9-3</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="b">
         <v>1</v>
       </c>
       <c r="B32">
         <v>3671</v>
       </c>
-      <c r="C32" t="str">
-        <v>array-9-5</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="b">
         <v>1</v>
       </c>
       <c r="B33">
         <v>1309</v>
       </c>
-      <c r="C33" t="str">
-        <v>array-9-5</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="b">
         <v>1</v>
       </c>
       <c r="B34">
         <v>832</v>
       </c>
-      <c r="C34" t="str">
-        <v>array-9-5</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="b">
         <v>0</v>
       </c>
       <c r="B35">
         <v>1161</v>
       </c>
-      <c r="C35" t="str">
-        <v>array-9-5</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="b">
         <v>1</v>
       </c>
       <c r="B36">
         <v>1480</v>
       </c>
-      <c r="C36" t="str">
-        <v>array-9-5</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="b">
         <v>1</v>
       </c>
       <c r="B37">
         <v>1423</v>
       </c>
-      <c r="C37" t="str">
-        <v>array-9-5</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="b">
         <v>1</v>
       </c>
       <c r="B38">
         <v>1501</v>
       </c>
-      <c r="C38" t="str">
-        <v>array-9-5</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="b">
         <v>0</v>
       </c>
       <c r="B39">
         <v>960</v>
       </c>
-      <c r="C39" t="str">
-        <v>array-9-5</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="b">
         <v>1</v>
       </c>
       <c r="B40">
         <v>3456</v>
       </c>
-      <c r="C40" t="str">
-        <v>array-9-5</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="b">
         <v>1</v>
       </c>
       <c r="B41">
         <v>2735</v>
       </c>
-      <c r="C41" t="str">
-        <v>array-9-5</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="b">
         <v>0</v>
       </c>
       <c r="B42">
         <v>1664</v>
       </c>
-      <c r="C42" t="str">
-        <v>array-9-9</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="b">
         <v>1</v>
       </c>
       <c r="B43">
         <v>1005</v>
       </c>
-      <c r="C43" t="str">
-        <v>array-9-9</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="b">
         <v>1</v>
       </c>
       <c r="B44">
         <v>1424</v>
       </c>
-      <c r="C44" t="str">
-        <v>array-9-9</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="b">
         <v>1</v>
       </c>
       <c r="B45">
         <v>1184</v>
       </c>
-      <c r="C45" t="str">
-        <v>array-9-9</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="b">
         <v>1</v>
       </c>
       <c r="B46">
         <v>2008</v>
       </c>
-      <c r="C46" t="str">
-        <v>array-9-9</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="b">
         <v>1</v>
       </c>
       <c r="B47">
         <v>3992</v>
       </c>
-      <c r="C47" t="str">
-        <v>array-9-9</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="b">
         <v>1</v>
       </c>
       <c r="B48">
         <v>1339</v>
       </c>
-      <c r="C48" t="str">
-        <v>array-9-9</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="b">
         <v>1</v>
       </c>
       <c r="B49">
         <v>2023</v>
       </c>
-      <c r="C49" t="str">
-        <v>array-9-9</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="b">
         <v>1</v>
       </c>
       <c r="B50">
         <v>2304</v>
       </c>
-      <c r="C50" t="str">
-        <v>array-9-9</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="b">
         <v>1</v>
       </c>
       <c r="B51">
         <v>3448</v>
       </c>
-      <c r="C51" t="str">
-        <v>array-9-9</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="b">
         <v>1</v>
       </c>
       <c r="B52">
         <v>3868</v>
       </c>
-      <c r="C52" t="str">
-        <v>array-16-1</v>
-      </c>
-    </row>
-    <row r="53">
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="b">
         <v>1</v>
       </c>
       <c r="B53">
         <v>1872</v>
       </c>
-      <c r="C53" t="str">
-        <v>array-16-1</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="b">
         <v>1</v>
       </c>
       <c r="B54">
         <v>3288</v>
       </c>
-      <c r="C54" t="str">
-        <v>array-16-1</v>
-      </c>
-    </row>
-    <row r="55">
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="b">
         <v>1</v>
       </c>
       <c r="B55">
         <v>2232</v>
       </c>
-      <c r="C55" t="str">
-        <v>array-16-1</v>
-      </c>
-    </row>
-    <row r="56">
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="b">
         <v>1</v>
       </c>
       <c r="B56">
         <v>2938</v>
       </c>
-      <c r="C56" t="str">
-        <v>array-16-1</v>
-      </c>
-    </row>
-    <row r="57">
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="b">
         <v>1</v>
       </c>
       <c r="B57">
         <v>2368</v>
       </c>
-      <c r="C57" t="str">
-        <v>array-16-1</v>
-      </c>
-    </row>
-    <row r="58">
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="b">
         <v>1</v>
       </c>
       <c r="B58">
         <v>4928</v>
       </c>
-      <c r="C58" t="str">
-        <v>array-16-1</v>
-      </c>
-    </row>
-    <row r="59">
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="b">
         <v>1</v>
       </c>
       <c r="B59">
         <v>2997</v>
       </c>
-      <c r="C59" t="str">
-        <v>array-16-1</v>
-      </c>
-    </row>
-    <row r="60">
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="b">
         <v>1</v>
       </c>
       <c r="B60">
         <v>1656</v>
       </c>
-      <c r="C60" t="str">
-        <v>array-16-1</v>
-      </c>
-    </row>
-    <row r="61">
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="b">
         <v>1</v>
       </c>
       <c r="B61">
         <v>3695</v>
       </c>
-      <c r="C61" t="str">
-        <v>array-16-1</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="b">
         <v>1</v>
       </c>
       <c r="B62">
         <v>6494</v>
       </c>
-      <c r="C62" t="str">
-        <v>array-16-2</v>
-      </c>
-    </row>
-    <row r="63">
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="b">
         <v>1</v>
       </c>
       <c r="B63">
         <v>4400</v>
       </c>
-      <c r="C63" t="str">
-        <v>array-16-2</v>
-      </c>
-    </row>
-    <row r="64">
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="b">
         <v>1</v>
       </c>
       <c r="B64">
         <v>3049</v>
       </c>
-      <c r="C64" t="str">
-        <v>array-16-2</v>
-      </c>
-    </row>
-    <row r="65">
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="b">
         <v>1</v>
       </c>
       <c r="B65">
         <v>5832</v>
       </c>
-      <c r="C65" t="str">
-        <v>array-16-2</v>
-      </c>
-    </row>
-    <row r="66">
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="b">
         <v>1</v>
       </c>
       <c r="B66">
         <v>2148</v>
       </c>
-      <c r="C66" t="str">
-        <v>array-16-2</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="b">
         <v>1</v>
       </c>
       <c r="B67">
         <v>5487</v>
       </c>
-      <c r="C67" t="str">
-        <v>array-16-2</v>
-      </c>
-    </row>
-    <row r="68">
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="b">
         <v>1</v>
       </c>
       <c r="B68">
         <v>3058</v>
       </c>
-      <c r="C68" t="str">
-        <v>array-16-2</v>
-      </c>
-    </row>
-    <row r="69">
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="b">
         <v>1</v>
       </c>
       <c r="B69">
         <v>4848</v>
       </c>
-      <c r="C69" t="str">
-        <v>array-16-2</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="b">
         <v>1</v>
       </c>
       <c r="B70">
         <v>2980</v>
       </c>
-      <c r="C70" t="str">
-        <v>array-16-2</v>
-      </c>
-    </row>
-    <row r="71">
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="b">
         <v>1</v>
       </c>
       <c r="B71">
         <v>7096</v>
       </c>
-      <c r="C71" t="str">
-        <v>array-16-2</v>
-      </c>
-    </row>
-    <row r="72">
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="b">
         <v>1</v>
       </c>
       <c r="B72">
         <v>1049</v>
       </c>
-      <c r="C72" t="str">
-        <v>array-16-3</v>
-      </c>
-    </row>
-    <row r="73">
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="b">
         <v>1</v>
       </c>
       <c r="B73">
         <v>4524</v>
       </c>
-      <c r="C73" t="str">
-        <v>array-16-3</v>
-      </c>
-    </row>
-    <row r="74">
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="b">
         <v>1</v>
       </c>
       <c r="B74">
         <v>1024</v>
       </c>
-      <c r="C74" t="str">
-        <v>array-16-3</v>
-      </c>
-    </row>
-    <row r="75">
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="b">
         <v>1</v>
       </c>
       <c r="B75">
         <v>1807</v>
       </c>
-      <c r="C75" t="str">
-        <v>array-16-3</v>
-      </c>
-    </row>
-    <row r="76">
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="b">
         <v>1</v>
       </c>
       <c r="B76">
         <v>793</v>
       </c>
-      <c r="C76" t="str">
-        <v>array-16-3</v>
-      </c>
-    </row>
-    <row r="77">
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="b">
         <v>1</v>
       </c>
       <c r="B77">
         <v>3796</v>
       </c>
-      <c r="C77" t="str">
-        <v>array-16-3</v>
-      </c>
-    </row>
-    <row r="78">
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="b">
         <v>1</v>
       </c>
       <c r="B78">
         <v>1336</v>
       </c>
-      <c r="C78" t="str">
-        <v>array-16-3</v>
-      </c>
-    </row>
-    <row r="79">
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="b">
         <v>1</v>
       </c>
       <c r="B79">
         <v>1232</v>
       </c>
-      <c r="C79" t="str">
-        <v>array-16-3</v>
-      </c>
-    </row>
-    <row r="80">
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="b">
         <v>1</v>
       </c>
       <c r="B80">
         <v>1691</v>
       </c>
-      <c r="C80" t="str">
-        <v>array-16-3</v>
-      </c>
-    </row>
-    <row r="81">
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="b">
         <v>1</v>
       </c>
       <c r="B81">
         <v>2008</v>
       </c>
-      <c r="C81" t="str">
-        <v>array-16-3</v>
-      </c>
-    </row>
-    <row r="82">
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="b">
         <v>1</v>
       </c>
       <c r="B82">
         <v>2112</v>
       </c>
-      <c r="C82" t="str">
-        <v>array-16-4</v>
-      </c>
-    </row>
-    <row r="83">
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="b">
         <v>1</v>
       </c>
       <c r="B83">
         <v>3326</v>
       </c>
-      <c r="C83" t="str">
-        <v>array-16-4</v>
-      </c>
-    </row>
-    <row r="84">
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="b">
         <v>1</v>
       </c>
       <c r="B84">
         <v>3547</v>
       </c>
-      <c r="C84" t="str">
-        <v>array-16-4</v>
-      </c>
-    </row>
-    <row r="85">
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="b">
         <v>1</v>
       </c>
       <c r="B85">
         <v>4768</v>
       </c>
-      <c r="C85" t="str">
-        <v>array-16-4</v>
-      </c>
-    </row>
-    <row r="86">
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="b">
         <v>1</v>
       </c>
       <c r="B86">
         <v>3144</v>
       </c>
-      <c r="C86" t="str">
-        <v>array-16-4</v>
-      </c>
-    </row>
-    <row r="87">
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" t="b">
         <v>1</v>
       </c>
       <c r="B87">
         <v>1421</v>
       </c>
-      <c r="C87" t="str">
-        <v>array-16-4</v>
-      </c>
-    </row>
-    <row r="88">
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" t="b">
         <v>1</v>
       </c>
       <c r="B88">
         <v>1840</v>
       </c>
-      <c r="C88" t="str">
-        <v>array-16-4</v>
-      </c>
-    </row>
-    <row r="89">
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="b">
         <v>1</v>
       </c>
       <c r="B89">
         <v>5728</v>
       </c>
-      <c r="C89" t="str">
-        <v>array-16-4</v>
-      </c>
-    </row>
-    <row r="90">
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="b">
         <v>1</v>
       </c>
       <c r="B90">
         <v>3649</v>
       </c>
-      <c r="C90" t="str">
-        <v>array-16-4</v>
-      </c>
-    </row>
-    <row r="91">
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="b">
         <v>1</v>
       </c>
       <c r="B91">
         <v>2336</v>
       </c>
-      <c r="C91" t="str">
-        <v>array-16-4</v>
-      </c>
-    </row>
-    <row r="92">
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" t="b">
         <v>1</v>
       </c>
       <c r="B92">
         <v>1794</v>
       </c>
-      <c r="C92" t="str">
-        <v>array-16-6</v>
-      </c>
-    </row>
-    <row r="93">
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" t="b">
         <v>1</v>
       </c>
       <c r="B93">
         <v>4689</v>
       </c>
-      <c r="C93" t="str">
-        <v>array-16-6</v>
-      </c>
-    </row>
-    <row r="94">
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" t="b">
         <v>1</v>
       </c>
       <c r="B94">
         <v>8520</v>
       </c>
-      <c r="C94" t="str">
-        <v>array-16-6</v>
-      </c>
-    </row>
-    <row r="95">
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" t="b">
         <v>1</v>
       </c>
       <c r="B95">
         <v>3478</v>
       </c>
-      <c r="C95" t="str">
-        <v>array-16-6</v>
-      </c>
-    </row>
-    <row r="96">
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="b">
         <v>1</v>
       </c>
       <c r="B96">
         <v>3896</v>
       </c>
-      <c r="C96" t="str">
-        <v>array-16-6</v>
-      </c>
-    </row>
-    <row r="97">
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="b">
         <v>1</v>
       </c>
       <c r="B97">
         <v>5688</v>
       </c>
-      <c r="C97" t="str">
-        <v>array-16-6</v>
-      </c>
-    </row>
-    <row r="98">
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" t="b">
         <v>1</v>
       </c>
       <c r="B98">
         <v>3024</v>
       </c>
-      <c r="C98" t="str">
-        <v>array-16-6</v>
-      </c>
-    </row>
-    <row r="99">
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" t="b">
         <v>1</v>
       </c>
       <c r="B99">
         <v>3749</v>
       </c>
-      <c r="C99" t="str">
-        <v>array-16-6</v>
-      </c>
-    </row>
-    <row r="100">
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" t="b">
         <v>1</v>
       </c>
       <c r="B100">
         <v>4209</v>
       </c>
-      <c r="C100" t="str">
-        <v>array-16-6</v>
-      </c>
-    </row>
-    <row r="101">
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" t="b">
         <v>1</v>
       </c>
       <c r="B101">
         <v>6184</v>
       </c>
-      <c r="C101" t="str">
-        <v>array-16-6</v>
-      </c>
-    </row>
-    <row r="102">
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" t="b">
         <v>1</v>
       </c>
       <c r="B102">
         <v>4224</v>
       </c>
-      <c r="C102" t="str">
-        <v>array-16-8</v>
-      </c>
-    </row>
-    <row r="103">
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" t="b">
         <v>1</v>
       </c>
       <c r="B103">
         <v>1346</v>
       </c>
-      <c r="C103" t="str">
-        <v>array-16-8</v>
-      </c>
-    </row>
-    <row r="104">
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" t="b">
         <v>1</v>
       </c>
       <c r="B104">
         <v>1953</v>
       </c>
-      <c r="C104" t="str">
-        <v>array-16-8</v>
-      </c>
-    </row>
-    <row r="105">
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" t="b">
         <v>1</v>
       </c>
       <c r="B105">
         <v>7248</v>
       </c>
-      <c r="C105" t="str">
-        <v>array-16-8</v>
-      </c>
-    </row>
-    <row r="106">
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" t="b">
         <v>1</v>
       </c>
       <c r="B106">
         <v>1596</v>
       </c>
-      <c r="C106" t="str">
-        <v>array-16-8</v>
-      </c>
-    </row>
-    <row r="107">
+      <c r="C106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" t="b">
         <v>1</v>
       </c>
       <c r="B107">
         <v>4120</v>
       </c>
-      <c r="C107" t="str">
-        <v>array-16-8</v>
-      </c>
-    </row>
-    <row r="108">
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" t="b">
         <v>1</v>
       </c>
       <c r="B108">
         <v>3000</v>
       </c>
-      <c r="C108" t="str">
-        <v>array-16-8</v>
-      </c>
-    </row>
-    <row r="109">
+      <c r="C108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" t="b">
         <v>1</v>
       </c>
       <c r="B109">
         <v>2360</v>
       </c>
-      <c r="C109" t="str">
-        <v>array-16-8</v>
-      </c>
-    </row>
-    <row r="110">
+      <c r="C109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" t="b">
         <v>1</v>
       </c>
       <c r="B110">
         <v>4005</v>
       </c>
-      <c r="C110" t="str">
-        <v>array-16-8</v>
-      </c>
-    </row>
-    <row r="111">
+      <c r="C110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" t="b">
         <v>1</v>
       </c>
       <c r="B111">
         <v>896</v>
       </c>
-      <c r="C111" t="str">
-        <v>array-16-8</v>
+      <c r="C111" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>